--- a/biology/Zoologie/Ichthyology_&_Herpetology/Ichthyology_&_Herpetology.xlsx
+++ b/biology/Zoologie/Ichthyology_&_Herpetology/Ichthyology_&_Herpetology.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ichthyology_%26_Herpetology</t>
+          <t>Ichthyology_&amp;_Herpetology</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ichthyology &amp; Herpetology, anciennement Copeia, est une publication scientifique trimestrielle américaine consacrée à l’ichtyologie et à l’herpétologie. Elle est la publication officielle de la Société américaine des ichtyologistes et des herpétologistes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ichthyology_%26_Herpetology</t>
+          <t>Ichthyology_&amp;_Herpetology</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Création de la revue
-Le scientifique américain John Treadwell Nichols (1883-1958) publie le 27 décembre 1913 le premier numéro de Copeia, nommée d'après Edward Drinker Cope (1840-1897), importante figure de la zoologie des États-Unis. Ce numéro était constitué d’une seule feuille de papier pliée de façon à former quatre pages et contenait cinq articles. La couverture porte cette phrase :
-Published by the contributors to advance the science of coldblooded vertebrates[1].
-Changement de nom
-En 2021, à la demande de membres de la Société américaine des ichtyologistes et des herpétologistes[2], la revue Copeia est renommée Ichthyology &amp; Herpetology, afin de ne plus rendre hommage à Edward Cope, critiqué pour ses positions racistes et misogynes[3].
-Le 19 mars 2021, les trois premiers articles de la revue Ichthyology &amp; Herpetology paraissent en ligne et abordent l'histoire du nom de la revue, son contexte historique et les raisons du changement de nom, ainsi qu'un essai de John Nichols, petit-fils du fondateur[4].
-</t>
+          <t>Création de la revue</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le scientifique américain John Treadwell Nichols (1883-1958) publie le 27 décembre 1913 le premier numéro de Copeia, nommée d'après Edward Drinker Cope (1840-1897), importante figure de la zoologie des États-Unis. Ce numéro était constitué d’une seule feuille de papier pliée de façon à former quatre pages et contenait cinq articles. La couverture porte cette phrase :
+Published by the contributors to advance the science of coldblooded vertebrates.</t>
         </is>
       </c>
     </row>
@@ -529,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ichthyology_%26_Herpetology</t>
+          <t>Ichthyology_&amp;_Herpetology</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sources</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Traduction de l'article de langue anglaise de Wikipédia (version du 24 novembre 2006).</t>
+          <t>Changement de nom</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, à la demande de membres de la Société américaine des ichtyologistes et des herpétologistes, la revue Copeia est renommée Ichthyology &amp; Herpetology, afin de ne plus rendre hommage à Edward Cope, critiqué pour ses positions racistes et misogynes.
+Le 19 mars 2021, les trois premiers articles de la revue Ichthyology &amp; Herpetology paraissent en ligne et abordent l'histoire du nom de la revue, son contexte historique et les raisons du changement de nom, ainsi qu'un essai de John Nichols, petit-fils du fondateur.
+</t>
         </is>
       </c>
     </row>
@@ -559,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ichthyology_%26_Herpetology</t>
+          <t>Ichthyology_&amp;_Herpetology</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +595,44 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Sources</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Traduction de l'article de langue anglaise de Wikipédia (version du 24 novembre 2006).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ichthyology_&amp;_Herpetology</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ichthyology_%26_Herpetology</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Publié par les contributeurs de l'avancement de la science sur les vertébrés à sang froid.
